--- a/DOC/OrangeHRM.xlsx
+++ b/DOC/OrangeHRM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\ORANGE-HRM\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05FB5D2-6D19-4567-BEF8-59D0ADADA199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FA8839-CF61-4102-A1E2-02A0D9257A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2205" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{07652D24-813E-47E9-BBAF-B7EB4B2764AC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{07652D24-813E-47E9-BBAF-B7EB4B2764AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="5" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="185">
   <si>
     <t>Test plan</t>
   </si>
@@ -782,6 +782,9 @@
   <si>
     <t>Verify adding a user to the system</t>
   </si>
+  <si>
+    <t>Fail upload file</t>
+  </si>
 </sst>
 </file>
 
@@ -790,7 +793,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;LUMA-&quot;#"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -857,8 +860,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -934,6 +944,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,11 +1141,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1168,60 +1190,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1255,9 +1223,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1611,10 +1642,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1629,8 +1660,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="5" t="s">
         <v>61</v>
       </c>
@@ -1645,8 +1676,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="5" t="s">
         <v>31</v>
       </c>
@@ -1659,8 +1690,8 @@
       <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="7" t="s">
         <v>41</v>
       </c>
@@ -1697,7 +1728,7 @@
         <f t="array" ref="A6:A20">"HRM-" &amp; _xlfn.SEQUENCE(COUNTA(C:C)-5)</f>
         <v>HRM-1</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="41" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -1717,7 +1748,7 @@
       <c r="A7" s="13" t="str">
         <v>HRM-2</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="11" t="s">
         <v>50</v>
       </c>
@@ -1735,7 +1766,7 @@
       <c r="A8" s="13" t="str">
         <v>HRM-3</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="43" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -1755,7 +1786,7 @@
       <c r="A9" s="13" t="str">
         <v>HRM-4</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="11" t="s">
         <v>57</v>
       </c>
@@ -1773,7 +1804,7 @@
       <c r="A10" s="13" t="str">
         <v>HRM-5</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="11" t="s">
         <v>47</v>
       </c>
@@ -1791,7 +1822,7 @@
       <c r="A11" s="13" t="str">
         <v>HRM-6</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="11" t="s">
         <v>46</v>
       </c>
@@ -1809,7 +1840,7 @@
       <c r="A12" s="13" t="str">
         <v>HRM-7</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -1829,7 +1860,7 @@
       <c r="A13" s="13" t="str">
         <v>HRM-8</v>
       </c>
-      <c r="B13" s="31"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="11" t="s">
         <v>51</v>
       </c>
@@ -1847,7 +1878,7 @@
       <c r="A14" s="13" t="str">
         <v>HRM-9</v>
       </c>
-      <c r="B14" s="31"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="11" t="s">
         <v>52</v>
       </c>
@@ -1865,7 +1896,7 @@
       <c r="A15" s="13" t="str">
         <v>HRM-10</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="47" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -1885,7 +1916,7 @@
       <c r="A16" s="13" t="str">
         <v>HRM-11</v>
       </c>
-      <c r="B16" s="33"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="11" t="s">
         <v>151</v>
       </c>
@@ -1903,7 +1934,7 @@
       <c r="A17" s="13" t="str">
         <v>HRM-12</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="33" t="s">
         <v>58</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -1923,7 +1954,7 @@
       <c r="A18" s="13" t="str">
         <v>HRM-13</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="11" t="s">
         <v>60</v>
       </c>
@@ -1941,7 +1972,7 @@
       <c r="A19" s="13" t="str">
         <v>HRM-14</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="31" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -1961,7 +1992,7 @@
       <c r="A20" s="13" t="str">
         <v>HRM-15</v>
       </c>
-      <c r="B20" s="17"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="11" t="s">
         <v>56</v>
       </c>
@@ -2013,1820 +2044,1834 @@
   </sheetPr>
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="D64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42" style="35" customWidth="1"/>
-    <col min="3" max="3" width="30.26953125" style="42" customWidth="1"/>
-    <col min="4" max="4" width="45.54296875" style="42" customWidth="1"/>
-    <col min="5" max="5" width="45.7265625" style="42" customWidth="1"/>
-    <col min="6" max="6" width="45.81640625" style="42" customWidth="1"/>
-    <col min="7" max="7" width="12.90625" style="45" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" style="42" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="42"/>
+    <col min="1" max="1" width="7.81640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="17" customWidth="1"/>
+    <col min="3" max="3" width="30.26953125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="24.90625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="45.7265625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="45.81640625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" style="24" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="41" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:8" s="23" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="H1" s="40"/>
-    </row>
-    <row r="2" spans="1:8" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="H2" s="34"/>
-    </row>
-    <row r="3" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="36">
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="18" t="s">
         <v>72</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="38"/>
-    </row>
-    <row r="4" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="36">
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18">
         <v>1.2</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="18" t="s">
         <v>73</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="38"/>
-    </row>
-    <row r="5" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="36">
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18">
         <v>1.3</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="18" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="38"/>
-    </row>
-    <row r="6" spans="1:8" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="34" t="s">
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="H6" s="34"/>
-    </row>
-    <row r="7" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="36">
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="18">
         <v>2.1</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="18" t="s">
         <v>72</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="36"/>
-    </row>
-    <row r="8" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="36">
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="18">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="18" t="s">
         <v>73</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="36"/>
-    </row>
-    <row r="9" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="36">
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="18">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="18" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="36"/>
-    </row>
-    <row r="10" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="34"/>
-    </row>
-    <row r="11" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="36">
+      <c r="G10" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="18">
         <v>3.1</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="18" t="s">
         <v>79</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="36"/>
-    </row>
-    <row r="12" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36">
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="18">
         <v>3.2</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="18" t="s">
         <v>81</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="36"/>
-    </row>
-    <row r="13" spans="1:8" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="36">
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="18">
         <v>3.3</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36" t="s">
+      <c r="D13" s="18"/>
+      <c r="E13" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="18" t="s">
         <v>83</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="36"/>
-    </row>
-    <row r="14" spans="1:8" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="36">
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="18">
         <v>3.4</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="18" t="s">
         <v>87</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="36"/>
-    </row>
-    <row r="15" spans="1:8" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="36">
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="18">
         <v>3.5</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36" t="s">
+      <c r="D15" s="18"/>
+      <c r="E15" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="18" t="s">
         <v>89</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="36"/>
-    </row>
-    <row r="16" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="36">
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="18">
         <v>3.6</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36" t="s">
+      <c r="D16" s="18"/>
+      <c r="E16" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="18" t="s">
         <v>72</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="36"/>
-    </row>
-    <row r="17" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="36">
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="18">
         <v>3.7</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36" t="s">
+      <c r="D17" s="18"/>
+      <c r="E17" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="18" t="s">
         <v>73</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="36"/>
-    </row>
-    <row r="18" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="36">
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="18">
         <v>3.8</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="18" t="s">
         <v>95</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="36"/>
-    </row>
-    <row r="19" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="36">
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="18">
         <v>3.9</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="18" t="s">
         <v>97</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="36"/>
-    </row>
-    <row r="20" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="34" t="s">
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:8" s="17" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="34"/>
-    </row>
-    <row r="21" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="36">
+      <c r="G20" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="18">
         <v>4.01</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="18" t="s">
         <v>79</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="36"/>
-    </row>
-    <row r="22" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="36">
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="18">
         <v>4.0199999999999996</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="18" t="s">
         <v>81</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="36"/>
-    </row>
-    <row r="23" spans="1:8" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="36">
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="18">
         <v>4.03</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36" t="s">
+      <c r="D23" s="18"/>
+      <c r="E23" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="18" t="s">
         <v>83</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="36"/>
-    </row>
-    <row r="24" spans="1:8" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="36">
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="18">
         <v>4.04</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36" t="s">
+      <c r="D24" s="18"/>
+      <c r="E24" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="36" t="s">
+      <c r="F24" s="18" t="s">
         <v>87</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="36"/>
-    </row>
-    <row r="25" spans="1:8" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="36">
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="18">
         <v>4.05</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36" t="s">
+      <c r="D25" s="18"/>
+      <c r="E25" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="18" t="s">
         <v>89</v>
       </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="36"/>
-    </row>
-    <row r="26" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="36">
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="18">
         <v>4.0599999999999996</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36" t="s">
+      <c r="D26" s="18"/>
+      <c r="E26" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F26" s="36" t="s">
+      <c r="F26" s="18" t="s">
         <v>72</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="H26" s="36"/>
-    </row>
-    <row r="27" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="36">
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="18">
         <v>4.07</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="37" t="s">
+      <c r="B27" s="18"/>
+      <c r="C27" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36" t="s">
+      <c r="D27" s="18"/>
+      <c r="E27" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="36" t="s">
+      <c r="F27" s="18" t="s">
         <v>73</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="36"/>
-    </row>
-    <row r="28" spans="1:8" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="36">
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="18">
         <v>4.08</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36" t="s">
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="36" t="s">
+      <c r="F28" s="18" t="s">
         <v>99</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="H28" s="36"/>
-    </row>
-    <row r="29" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="34" t="s">
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34" t="s">
+      <c r="C29" s="16"/>
+      <c r="D29" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="34" t="s">
+      <c r="E29" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="34" t="s">
+      <c r="F29" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="34"/>
-    </row>
-    <row r="30" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="36">
+      <c r="G29" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="18">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36" t="s">
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="18" t="s">
         <v>79</v>
       </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="36"/>
-    </row>
-    <row r="31" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="36">
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="18">
         <v>5.2</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36" t="s">
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F31" s="36" t="s">
+      <c r="F31" s="18" t="s">
         <v>100</v>
       </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="36"/>
-    </row>
-    <row r="32" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="36">
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="18">
         <v>5.3</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36" t="s">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F32" s="36" t="s">
+      <c r="F32" s="18" t="s">
         <v>102</v>
       </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="36"/>
-    </row>
-    <row r="33" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="36">
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="18">
         <v>5.4</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36" t="s">
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F33" s="18" t="s">
         <v>103</v>
       </c>
       <c r="G33" s="2"/>
-      <c r="H33" s="36"/>
-    </row>
-    <row r="34" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="36">
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="18">
         <v>5.5</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36" t="s">
+      <c r="B34" s="18"/>
+      <c r="C34" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36" t="s">
+      <c r="D34" s="18"/>
+      <c r="E34" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F34" s="36" t="s">
+      <c r="F34" s="18" t="s">
         <v>104</v>
       </c>
       <c r="G34" s="2"/>
-      <c r="H34" s="36"/>
-    </row>
-    <row r="35" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="36">
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="18">
         <v>5.6</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36" t="s">
+      <c r="B35" s="18"/>
+      <c r="C35" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36" t="s">
+      <c r="D35" s="18"/>
+      <c r="E35" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="36" t="s">
+      <c r="F35" s="18" t="s">
         <v>110</v>
       </c>
       <c r="G35" s="2"/>
-      <c r="H35" s="36"/>
-    </row>
-    <row r="36" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="36">
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="18">
         <v>5.7</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36" t="s">
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F36" s="36" t="s">
+      <c r="F36" s="18" t="s">
         <v>95</v>
       </c>
       <c r="G36" s="2"/>
-      <c r="H36" s="36"/>
-    </row>
-    <row r="37" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="36">
+      <c r="H36" s="18"/>
+    </row>
+    <row r="37" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="18">
         <v>5.8</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36" t="s">
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F37" s="36" t="s">
+      <c r="F37" s="18" t="s">
         <v>113</v>
       </c>
       <c r="G37" s="2"/>
-      <c r="H37" s="36"/>
-    </row>
-    <row r="38" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="34" t="s">
+      <c r="H37" s="18"/>
+    </row>
+    <row r="38" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34" t="s">
+      <c r="C38" s="16"/>
+      <c r="D38" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E38" s="34" t="s">
+      <c r="E38" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F38" s="34" t="s">
+      <c r="F38" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="34"/>
-    </row>
-    <row r="39" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="36">
+      <c r="G38" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="H38" s="16"/>
+    </row>
+    <row r="39" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="18">
         <v>6.1</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36" t="s">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="E39" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="36" t="s">
+      <c r="F39" s="18" t="s">
         <v>79</v>
       </c>
       <c r="G39" s="2"/>
-      <c r="H39" s="36"/>
-    </row>
-    <row r="40" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="36">
+      <c r="H39" s="18"/>
+    </row>
+    <row r="40" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="18">
         <v>6.2</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36" t="s">
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F40" s="36" t="s">
+      <c r="F40" s="18" t="s">
         <v>100</v>
       </c>
       <c r="G40" s="2"/>
-      <c r="H40" s="36"/>
-    </row>
-    <row r="41" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="36">
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="18">
         <v>6.3</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36" t="s">
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F41" s="36" t="s">
+      <c r="F41" s="18" t="s">
         <v>102</v>
       </c>
       <c r="G41" s="2"/>
-      <c r="H41" s="36"/>
-    </row>
-    <row r="42" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="36">
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="18">
         <v>6.4</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36" t="s">
+      <c r="B42" s="18"/>
+      <c r="C42" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36" t="s">
+      <c r="D42" s="18"/>
+      <c r="E42" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="36" t="s">
+      <c r="F42" s="18" t="s">
         <v>27</v>
       </c>
       <c r="G42" s="2"/>
-      <c r="H42" s="36"/>
-    </row>
-    <row r="43" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="36">
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="18">
         <v>6.5</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36" t="s">
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F43" s="36" t="s">
+      <c r="F43" s="18" t="s">
         <v>95</v>
       </c>
       <c r="G43" s="2"/>
-      <c r="H43" s="36"/>
-    </row>
-    <row r="44" spans="1:8" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="36">
+      <c r="H43" s="18"/>
+    </row>
+    <row r="44" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="18">
         <v>6.6</v>
       </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36" t="s">
+      <c r="B44" s="18"/>
+      <c r="C44" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36" t="s">
+      <c r="D44" s="18"/>
+      <c r="E44" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F44" s="36" t="s">
+      <c r="F44" s="18" t="s">
         <v>117</v>
       </c>
       <c r="G44" s="2"/>
-      <c r="H44" s="36"/>
-    </row>
-    <row r="45" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="34" t="s">
+      <c r="H44" s="18"/>
+    </row>
+    <row r="45" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34" t="s">
+      <c r="C45" s="16"/>
+      <c r="D45" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E45" s="34" t="s">
+      <c r="E45" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F45" s="34" t="s">
+      <c r="F45" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="34"/>
-    </row>
-    <row r="46" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="36">
+      <c r="G45" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="H45" s="16"/>
+    </row>
+    <row r="46" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="18">
         <v>7.1</v>
       </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36" t="s">
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E46" s="36" t="s">
+      <c r="E46" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F46" s="36" t="s">
+      <c r="F46" s="18" t="s">
         <v>120</v>
       </c>
       <c r="G46" s="2"/>
-      <c r="H46" s="36"/>
-    </row>
-    <row r="47" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="36">
+      <c r="H46" s="18"/>
+    </row>
+    <row r="47" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="18">
         <v>7.2</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36" t="s">
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F47" s="36" t="s">
+      <c r="F47" s="18" t="s">
         <v>123</v>
       </c>
       <c r="G47" s="2"/>
-      <c r="H47" s="36"/>
-    </row>
-    <row r="48" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="36">
+      <c r="H47" s="18"/>
+    </row>
+    <row r="48" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="18">
         <v>7.3</v>
       </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36" t="s">
+      <c r="B48" s="18"/>
+      <c r="C48" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36" t="s">
+      <c r="D48" s="18"/>
+      <c r="E48" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="F48" s="36" t="s">
+      <c r="F48" s="18" t="s">
         <v>125</v>
       </c>
       <c r="G48" s="2"/>
-      <c r="H48" s="36"/>
-    </row>
-    <row r="49" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="36">
+      <c r="H48" s="18"/>
+    </row>
+    <row r="49" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="18">
         <v>7.4</v>
       </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36" t="s">
+      <c r="B49" s="18"/>
+      <c r="C49" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36" t="s">
+      <c r="D49" s="18"/>
+      <c r="E49" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="F49" s="36" t="s">
+      <c r="F49" s="18" t="s">
         <v>127</v>
       </c>
       <c r="G49" s="2"/>
-      <c r="H49" s="36"/>
-    </row>
-    <row r="50" spans="1:8" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="36">
+      <c r="H49" s="18"/>
+    </row>
+    <row r="50" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A50" s="18">
         <v>7.5</v>
       </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36" t="s">
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F50" s="36" t="s">
+      <c r="F50" s="18" t="s">
         <v>141</v>
       </c>
       <c r="G50" s="2"/>
-      <c r="H50" s="36"/>
-    </row>
-    <row r="51" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="34" t="s">
+      <c r="H50" s="18"/>
+    </row>
+    <row r="51" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34" t="s">
+      <c r="C51" s="16"/>
+      <c r="D51" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E51" s="34" t="s">
+      <c r="E51" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F51" s="34" t="s">
+      <c r="F51" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="34"/>
-    </row>
-    <row r="52" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="36">
+      <c r="G51" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="H51" s="16"/>
+    </row>
+    <row r="52" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A52" s="18">
         <v>8.01</v>
       </c>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36" t="s">
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E52" s="36" t="s">
+      <c r="E52" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F52" s="36" t="s">
+      <c r="F52" s="18" t="s">
         <v>120</v>
       </c>
       <c r="G52" s="2"/>
-      <c r="H52" s="36"/>
-    </row>
-    <row r="53" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="36">
+      <c r="H52" s="18"/>
+    </row>
+    <row r="53" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="18">
         <v>8.02</v>
       </c>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36" t="s">
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="F53" s="36" t="s">
+      <c r="F53" s="18" t="s">
         <v>131</v>
       </c>
       <c r="G53" s="2"/>
-      <c r="H53" s="36"/>
-    </row>
-    <row r="54" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="36">
+      <c r="H53" s="18"/>
+    </row>
+    <row r="54" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="18">
         <v>8.0299999999999994</v>
       </c>
-      <c r="B54" s="36"/>
-      <c r="C54" s="36" t="s">
+      <c r="B54" s="18"/>
+      <c r="C54" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36" t="s">
+      <c r="D54" s="18"/>
+      <c r="E54" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F54" s="36" t="s">
+      <c r="F54" s="18" t="s">
         <v>89</v>
       </c>
       <c r="G54" s="2"/>
-      <c r="H54" s="36"/>
-    </row>
-    <row r="55" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="36">
+      <c r="H54" s="18"/>
+    </row>
+    <row r="55" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="18">
         <v>8.0399999999999991</v>
       </c>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36" t="s">
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="F55" s="36" t="s">
+      <c r="F55" s="18" t="s">
         <v>135</v>
       </c>
       <c r="G55" s="2"/>
-      <c r="H55" s="36"/>
-    </row>
-    <row r="56" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="36">
+      <c r="H55" s="18"/>
+    </row>
+    <row r="56" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="18">
         <v>8.0500000000000007</v>
       </c>
-      <c r="B56" s="36"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36" t="s">
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="F56" s="36" t="s">
+      <c r="F56" s="18" t="s">
         <v>130</v>
       </c>
       <c r="G56" s="2"/>
-      <c r="H56" s="36"/>
-    </row>
-    <row r="57" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="36">
+      <c r="H56" s="18"/>
+    </row>
+    <row r="57" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="18">
         <v>8.06</v>
       </c>
-      <c r="B57" s="36"/>
-      <c r="C57" s="36" t="s">
+      <c r="B57" s="18"/>
+      <c r="C57" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36" t="s">
+      <c r="D57" s="18"/>
+      <c r="E57" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="F57" s="36" t="s">
+      <c r="F57" s="18" t="s">
         <v>125</v>
       </c>
       <c r="G57" s="2"/>
-      <c r="H57" s="36"/>
-    </row>
-    <row r="58" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="36">
+      <c r="H57" s="18"/>
+    </row>
+    <row r="58" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="18">
         <v>8.07</v>
       </c>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36" t="s">
+      <c r="B58" s="18"/>
+      <c r="C58" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36" t="s">
+      <c r="D58" s="18"/>
+      <c r="E58" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="F58" s="36" t="s">
+      <c r="F58" s="18" t="s">
         <v>127</v>
       </c>
       <c r="G58" s="2"/>
-      <c r="H58" s="36"/>
-    </row>
-    <row r="59" spans="1:8" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A59" s="36">
+      <c r="H58" s="18"/>
+    </row>
+    <row r="59" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A59" s="18">
         <v>8.08</v>
       </c>
-      <c r="B59" s="36"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36" t="s">
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F59" s="36" t="s">
+      <c r="F59" s="18" t="s">
         <v>141</v>
       </c>
       <c r="G59" s="2"/>
-      <c r="H59" s="36"/>
-    </row>
-    <row r="60" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="36">
+      <c r="H59" s="18"/>
+    </row>
+    <row r="60" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="18">
         <v>8.09</v>
       </c>
-      <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36" t="s">
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="F60" s="36" t="s">
+      <c r="F60" s="18" t="s">
         <v>131</v>
       </c>
       <c r="G60" s="2"/>
-      <c r="H60" s="36"/>
-    </row>
-    <row r="61" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="36">
+      <c r="H60" s="18"/>
+    </row>
+    <row r="61" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="18">
         <v>8.1</v>
       </c>
-      <c r="B61" s="36"/>
-      <c r="C61" s="36" t="s">
+      <c r="B61" s="18"/>
+      <c r="C61" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36" t="s">
+      <c r="D61" s="18"/>
+      <c r="E61" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F61" s="36" t="s">
+      <c r="F61" s="18" t="s">
         <v>89</v>
       </c>
       <c r="G61" s="2"/>
-      <c r="H61" s="36"/>
-    </row>
-    <row r="62" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="36">
+      <c r="H61" s="18"/>
+    </row>
+    <row r="62" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="18">
         <v>8.11</v>
       </c>
-      <c r="B62" s="36"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36" t="s">
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="F62" s="36" t="s">
+      <c r="F62" s="18" t="s">
         <v>135</v>
       </c>
       <c r="G62" s="2"/>
-      <c r="H62" s="36"/>
-    </row>
-    <row r="63" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="34" t="s">
+      <c r="H62" s="18"/>
+    </row>
+    <row r="63" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A63" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34" t="s">
+      <c r="C63" s="16"/>
+      <c r="D63" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E63" s="34" t="s">
+      <c r="E63" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F63" s="34" t="s">
+      <c r="F63" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G63" s="3"/>
-      <c r="H63" s="34"/>
-    </row>
-    <row r="64" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="36">
+      <c r="G63" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H63" s="16"/>
+    </row>
+    <row r="64" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A64" s="18">
         <v>9.1</v>
       </c>
-      <c r="B64" s="36"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36" t="s">
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E64" s="36" t="s">
+      <c r="E64" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F64" s="36" t="s">
+      <c r="F64" s="18" t="s">
         <v>120</v>
       </c>
       <c r="G64" s="2"/>
-      <c r="H64" s="36"/>
-    </row>
-    <row r="65" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="36">
+      <c r="H64" s="18"/>
+    </row>
+    <row r="65" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="18">
         <v>9.1999999999999993</v>
       </c>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36" t="s">
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="F65" s="36" t="s">
+      <c r="F65" s="18" t="s">
         <v>131</v>
       </c>
       <c r="G65" s="2"/>
-      <c r="H65" s="36"/>
-    </row>
-    <row r="66" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="36">
+      <c r="H65" s="18"/>
+    </row>
+    <row r="66" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="18">
         <v>9.3000000000000007</v>
       </c>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36" t="s">
+      <c r="B66" s="18"/>
+      <c r="C66" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36" t="s">
+      <c r="D66" s="18"/>
+      <c r="E66" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F66" s="36" t="s">
+      <c r="F66" s="18" t="s">
         <v>89</v>
       </c>
       <c r="G66" s="2"/>
-      <c r="H66" s="36"/>
-    </row>
-    <row r="67" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="36">
+      <c r="H66" s="18"/>
+    </row>
+    <row r="67" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="18">
         <v>9.4</v>
       </c>
-      <c r="B67" s="36"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36" t="s">
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="F67" s="36" t="s">
+      <c r="F67" s="18" t="s">
         <v>135</v>
       </c>
       <c r="G67" s="2"/>
-      <c r="H67" s="36"/>
-    </row>
-    <row r="68" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="36">
+      <c r="H67" s="18"/>
+    </row>
+    <row r="68" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="18">
         <v>9.5</v>
       </c>
-      <c r="B68" s="36"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36" t="s">
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="F68" s="36" t="s">
+      <c r="F68" s="18" t="s">
         <v>27</v>
       </c>
       <c r="G68" s="2"/>
-      <c r="H68" s="36"/>
-    </row>
-    <row r="69" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="36">
+      <c r="H68" s="18"/>
+    </row>
+    <row r="69" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="18">
         <v>9.6</v>
       </c>
-      <c r="B69" s="36"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36" t="s">
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F69" s="36" t="s">
+      <c r="F69" s="18" t="s">
         <v>95</v>
       </c>
       <c r="G69" s="2"/>
-      <c r="H69" s="36"/>
-    </row>
-    <row r="70" spans="1:8" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A70" s="36">
+      <c r="H69" s="18"/>
+    </row>
+    <row r="70" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A70" s="18">
         <v>9.6999999999999993</v>
       </c>
-      <c r="B70" s="36"/>
-      <c r="C70" s="36" t="s">
+      <c r="B70" s="18"/>
+      <c r="C70" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36" t="s">
+      <c r="D70" s="18"/>
+      <c r="E70" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="F70" s="36" t="s">
+      <c r="F70" s="18" t="s">
         <v>145</v>
       </c>
       <c r="G70" s="2"/>
-      <c r="H70" s="36"/>
-    </row>
-    <row r="71" spans="1:8" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A71" s="34" t="s">
+      <c r="H70" s="18"/>
+    </row>
+    <row r="71" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A71" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B71" s="34" t="s">
+      <c r="B71" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="C71" s="34"/>
-      <c r="D71" s="34" t="s">
+      <c r="C71" s="16"/>
+      <c r="D71" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E71" s="34" t="s">
+      <c r="E71" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F71" s="34" t="s">
+      <c r="F71" s="16" t="s">
         <v>68</v>
       </c>
       <c r="G71" s="3"/>
-      <c r="H71" s="34"/>
-    </row>
-    <row r="72" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="36">
+      <c r="H71" s="16"/>
+    </row>
+    <row r="72" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A72" s="18">
         <v>10.1</v>
       </c>
-      <c r="B72" s="36"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36" t="s">
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E72" s="36" t="s">
+      <c r="E72" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="F72" s="36" t="s">
+      <c r="F72" s="18" t="s">
         <v>147</v>
       </c>
       <c r="G72" s="2"/>
-      <c r="H72" s="36"/>
-    </row>
-    <row r="73" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="36">
+      <c r="H72" s="18"/>
+    </row>
+    <row r="73" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="18">
         <v>10.199999999999999</v>
       </c>
-      <c r="B73" s="36"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36" t="s">
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="F73" s="36" t="s">
+      <c r="F73" s="18" t="s">
         <v>148</v>
       </c>
       <c r="G73" s="2"/>
-      <c r="H73" s="36"/>
-    </row>
-    <row r="74" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="36">
+      <c r="H73" s="18"/>
+    </row>
+    <row r="74" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="18">
         <v>10.5</v>
       </c>
-      <c r="B74" s="36"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36" t="s">
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F74" s="36" t="s">
+      <c r="F74" s="18" t="s">
         <v>152</v>
       </c>
       <c r="G74" s="2"/>
-      <c r="H74" s="36"/>
-    </row>
-    <row r="75" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="36">
+      <c r="H74" s="18"/>
+    </row>
+    <row r="75" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="18">
         <v>10.6</v>
       </c>
-      <c r="B75" s="36"/>
-      <c r="C75" s="36" t="s">
+      <c r="B75" s="18"/>
+      <c r="C75" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36" t="s">
+      <c r="D75" s="18"/>
+      <c r="E75" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="F75" s="36" t="s">
+      <c r="F75" s="18" t="s">
         <v>154</v>
       </c>
       <c r="G75" s="2"/>
-      <c r="H75" s="36"/>
-    </row>
-    <row r="76" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="36">
+      <c r="H75" s="18"/>
+    </row>
+    <row r="76" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="18">
         <v>10.7</v>
       </c>
-      <c r="B76" s="36"/>
-      <c r="C76" s="36" t="s">
+      <c r="B76" s="18"/>
+      <c r="C76" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36" t="s">
+      <c r="D76" s="18"/>
+      <c r="E76" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="F76" s="36" t="s">
+      <c r="F76" s="18" t="s">
         <v>156</v>
       </c>
       <c r="G76" s="2"/>
-      <c r="H76" s="36"/>
-    </row>
-    <row r="77" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="36">
+      <c r="H76" s="18"/>
+    </row>
+    <row r="77" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="18">
         <v>10.8</v>
       </c>
-      <c r="B77" s="36"/>
-      <c r="C77" s="36" t="s">
+      <c r="B77" s="18"/>
+      <c r="C77" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36" t="s">
+      <c r="D77" s="18"/>
+      <c r="E77" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="F77" s="36" t="s">
+      <c r="F77" s="18" t="s">
         <v>158</v>
       </c>
       <c r="G77" s="2"/>
-      <c r="H77" s="36"/>
-    </row>
-    <row r="78" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="36">
+      <c r="H77" s="18"/>
+    </row>
+    <row r="78" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="18">
         <v>10.9</v>
       </c>
-      <c r="B78" s="36"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36" t="s">
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F78" s="36" t="s">
+      <c r="F78" s="18" t="s">
         <v>95</v>
       </c>
       <c r="G78" s="2"/>
-      <c r="H78" s="36"/>
-    </row>
-    <row r="79" spans="1:8" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A79" s="34" t="s">
+      <c r="H78" s="18"/>
+    </row>
+    <row r="79" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A79" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B79" s="34" t="s">
+      <c r="B79" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34" t="s">
+      <c r="C79" s="16"/>
+      <c r="D79" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E79" s="34" t="s">
+      <c r="E79" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F79" s="34" t="s">
+      <c r="F79" s="16" t="s">
         <v>68</v>
       </c>
       <c r="G79" s="3"/>
-      <c r="H79" s="34"/>
-    </row>
-    <row r="80" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="36">
+      <c r="H79" s="16"/>
+    </row>
+    <row r="80" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A80" s="18">
         <v>11.1</v>
       </c>
-      <c r="B80" s="36"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36" t="s">
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E80" s="36" t="s">
+      <c r="E80" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="F80" s="36" t="s">
+      <c r="F80" s="18" t="s">
         <v>147</v>
       </c>
       <c r="G80" s="2"/>
-      <c r="H80" s="36"/>
-    </row>
-    <row r="81" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="36">
+      <c r="H80" s="18"/>
+    </row>
+    <row r="81" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="18">
         <v>11.2</v>
       </c>
-      <c r="B81" s="36"/>
-      <c r="C81" s="36"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36" t="s">
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="F81" s="36" t="s">
+      <c r="F81" s="18" t="s">
         <v>148</v>
       </c>
       <c r="G81" s="2"/>
-      <c r="H81" s="36"/>
-    </row>
-    <row r="82" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="36">
+      <c r="H81" s="18"/>
+    </row>
+    <row r="82" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="18">
         <v>11.3</v>
       </c>
-      <c r="B82" s="36"/>
-      <c r="C82" s="36" t="s">
+      <c r="B82" s="18"/>
+      <c r="C82" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="D82" s="36"/>
-      <c r="E82" s="36" t="s">
+      <c r="D82" s="18"/>
+      <c r="E82" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="F82" s="36" t="s">
+      <c r="F82" s="18" t="s">
         <v>162</v>
       </c>
       <c r="G82" s="2"/>
-      <c r="H82" s="36"/>
-    </row>
-    <row r="83" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="36">
+      <c r="H82" s="18"/>
+    </row>
+    <row r="83" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="18">
         <v>11.4</v>
       </c>
-      <c r="B83" s="36"/>
-      <c r="C83" s="36" t="s">
+      <c r="B83" s="18"/>
+      <c r="C83" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D83" s="36"/>
-      <c r="E83" s="36" t="s">
+      <c r="D83" s="18"/>
+      <c r="E83" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="F83" s="36" t="s">
+      <c r="F83" s="18" t="s">
         <v>163</v>
       </c>
       <c r="G83" s="2"/>
-      <c r="H83" s="36"/>
-    </row>
-    <row r="84" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="36">
+      <c r="H83" s="18"/>
+    </row>
+    <row r="84" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="18">
         <v>11.5</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="36" t="s">
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="F84" s="36" t="s">
+      <c r="F84" s="18" t="s">
         <v>164</v>
       </c>
       <c r="G84" s="2"/>
-      <c r="H84" s="36"/>
-    </row>
-    <row r="85" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="36">
+      <c r="H84" s="18"/>
+    </row>
+    <row r="85" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="18">
         <v>11.6</v>
       </c>
-      <c r="B85" s="36"/>
-      <c r="C85" s="36"/>
-      <c r="D85" s="36"/>
-      <c r="E85" s="36" t="s">
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="F85" s="36" t="s">
+      <c r="F85" s="18" t="s">
         <v>27</v>
       </c>
       <c r="G85" s="2"/>
-      <c r="H85" s="36"/>
-    </row>
-    <row r="86" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="36">
+      <c r="H85" s="18"/>
+    </row>
+    <row r="86" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="18">
         <v>11.7</v>
       </c>
-      <c r="B86" s="36"/>
-      <c r="C86" s="36"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="36" t="s">
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F86" s="36" t="s">
+      <c r="F86" s="18" t="s">
         <v>95</v>
       </c>
       <c r="G86" s="2"/>
-      <c r="H86" s="36"/>
-    </row>
-    <row r="87" spans="1:8" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A87" s="34" t="s">
+      <c r="H86" s="18"/>
+    </row>
+    <row r="87" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A87" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B87" s="34" t="s">
+      <c r="B87" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C87" s="34"/>
-      <c r="D87" s="34" t="s">
+      <c r="C87" s="16"/>
+      <c r="D87" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E87" s="34" t="s">
+      <c r="E87" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F87" s="34" t="s">
+      <c r="F87" s="16" t="s">
         <v>68</v>
       </c>
       <c r="G87" s="3"/>
-      <c r="H87" s="34"/>
-    </row>
-    <row r="88" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="36">
+      <c r="H87" s="16"/>
+    </row>
+    <row r="88" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A88" s="18">
         <v>12.1</v>
       </c>
-      <c r="B88" s="36"/>
-      <c r="C88" s="36"/>
-      <c r="D88" s="36" t="s">
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E88" s="36" t="s">
+      <c r="E88" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="F88" s="36" t="s">
+      <c r="F88" s="18" t="s">
         <v>167</v>
       </c>
       <c r="G88" s="2"/>
-      <c r="H88" s="36"/>
-    </row>
-    <row r="89" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="36">
+      <c r="H88" s="18"/>
+    </row>
+    <row r="89" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="18">
         <v>12.3</v>
       </c>
-      <c r="B89" s="36"/>
-      <c r="C89" s="36" t="s">
+      <c r="B89" s="18"/>
+      <c r="C89" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D89" s="36"/>
-      <c r="E89" s="36" t="s">
+      <c r="D89" s="18"/>
+      <c r="E89" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F89" s="36" t="s">
+      <c r="F89" s="18" t="s">
         <v>73</v>
       </c>
       <c r="G89" s="2"/>
-      <c r="H89" s="36"/>
-    </row>
-    <row r="90" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="36">
+      <c r="H89" s="18"/>
+    </row>
+    <row r="90" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="18">
         <v>12.4</v>
       </c>
-      <c r="B90" s="36"/>
-      <c r="C90" s="36"/>
-      <c r="D90" s="36"/>
-      <c r="E90" s="36" t="s">
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="F90" s="36" t="s">
+      <c r="F90" s="18" t="s">
         <v>169</v>
       </c>
       <c r="G90" s="2"/>
-      <c r="H90" s="36"/>
-    </row>
-    <row r="91" spans="1:8" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A91" s="34" t="s">
+      <c r="H90" s="18"/>
+    </row>
+    <row r="91" spans="1:8" s="17" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A91" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B91" s="34" t="s">
+      <c r="B91" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C91" s="34"/>
-      <c r="D91" s="34" t="s">
+      <c r="C91" s="16"/>
+      <c r="D91" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E91" s="34" t="s">
+      <c r="E91" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F91" s="34" t="s">
+      <c r="F91" s="16" t="s">
         <v>68</v>
       </c>
       <c r="G91" s="3"/>
-      <c r="H91" s="34"/>
-    </row>
-    <row r="92" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="36">
+      <c r="H91" s="16"/>
+    </row>
+    <row r="92" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A92" s="18">
         <v>13.1</v>
       </c>
-      <c r="B92" s="36"/>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36" t="s">
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E92" s="36" t="s">
+      <c r="E92" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="F92" s="36" t="s">
+      <c r="F92" s="18" t="s">
         <v>167</v>
       </c>
       <c r="G92" s="2"/>
-      <c r="H92" s="36"/>
-    </row>
-    <row r="93" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="36">
+      <c r="H92" s="18"/>
+    </row>
+    <row r="93" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="18">
         <v>13.2</v>
       </c>
-      <c r="B93" s="36"/>
-      <c r="C93" s="36" t="s">
+      <c r="B93" s="18"/>
+      <c r="C93" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D93" s="36"/>
-      <c r="E93" s="36" t="s">
+      <c r="D93" s="18"/>
+      <c r="E93" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F93" s="36" t="s">
+      <c r="F93" s="18" t="s">
         <v>73</v>
       </c>
       <c r="G93" s="2"/>
-      <c r="H93" s="36"/>
-    </row>
-    <row r="94" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="36">
+      <c r="H93" s="18"/>
+    </row>
+    <row r="94" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="18">
         <v>13.3</v>
       </c>
-      <c r="B94" s="36"/>
-      <c r="C94" s="37"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="36" t="s">
+      <c r="B94" s="18"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="F94" s="36" t="s">
+      <c r="F94" s="18" t="s">
         <v>29</v>
       </c>
       <c r="G94" s="2"/>
-      <c r="H94" s="36"/>
-    </row>
-    <row r="95" spans="1:8" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A95" s="34" t="s">
+      <c r="H94" s="18"/>
+    </row>
+    <row r="95" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A95" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B95" s="34" t="s">
+      <c r="B95" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C95" s="34"/>
-      <c r="D95" s="34" t="s">
+      <c r="C95" s="16"/>
+      <c r="D95" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E95" s="34" t="s">
+      <c r="E95" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F95" s="34" t="s">
+      <c r="F95" s="16" t="s">
         <v>68</v>
       </c>
       <c r="G95" s="3"/>
-      <c r="H95" s="34"/>
-    </row>
-    <row r="96" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="36">
+      <c r="H95" s="16"/>
+    </row>
+    <row r="96" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A96" s="18">
         <v>14.1</v>
       </c>
-      <c r="B96" s="36"/>
-      <c r="C96" s="36"/>
-      <c r="D96" s="36" t="s">
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E96" s="36" t="s">
+      <c r="E96" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="F96" s="36" t="s">
+      <c r="F96" s="18" t="s">
         <v>171</v>
       </c>
       <c r="G96" s="2"/>
-      <c r="H96" s="36"/>
-    </row>
-    <row r="97" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="36">
+      <c r="H96" s="18"/>
+    </row>
+    <row r="97" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="18">
         <v>14.2</v>
       </c>
-      <c r="B97" s="36"/>
-      <c r="C97" s="36" t="s">
+      <c r="B97" s="18"/>
+      <c r="C97" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="D97" s="37"/>
-      <c r="E97" s="36" t="s">
+      <c r="D97" s="19"/>
+      <c r="E97" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="F97" s="36" t="s">
+      <c r="F97" s="18" t="s">
         <v>173</v>
       </c>
       <c r="G97" s="2"/>
-      <c r="H97" s="36"/>
-    </row>
-    <row r="98" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="36">
+      <c r="H97" s="18"/>
+    </row>
+    <row r="98" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="18">
         <v>14.3</v>
       </c>
-      <c r="B98" s="36"/>
-      <c r="C98" s="37"/>
-      <c r="D98" s="36"/>
-      <c r="E98" s="36" t="s">
+      <c r="B98" s="18"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="F98" s="36" t="s">
+      <c r="F98" s="18" t="s">
         <v>95</v>
       </c>
       <c r="G98" s="2"/>
-      <c r="H98" s="36"/>
-    </row>
-    <row r="99" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="36">
+      <c r="H98" s="18"/>
+    </row>
+    <row r="99" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="18">
         <v>14.4</v>
       </c>
-      <c r="B99" s="36"/>
-      <c r="C99" s="36"/>
-      <c r="D99" s="36"/>
-      <c r="E99" s="36" t="s">
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="F99" s="36" t="s">
+      <c r="F99" s="18" t="s">
         <v>176</v>
       </c>
       <c r="G99" s="2"/>
-      <c r="H99" s="36"/>
-    </row>
-    <row r="100" spans="1:8" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A100" s="34" t="s">
+      <c r="H99" s="18"/>
+    </row>
+    <row r="100" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A100" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B100" s="34" t="s">
+      <c r="B100" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C100" s="34"/>
-      <c r="D100" s="34" t="s">
+      <c r="C100" s="16"/>
+      <c r="D100" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E100" s="34" t="s">
+      <c r="E100" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F100" s="34" t="s">
+      <c r="F100" s="16" t="s">
         <v>68</v>
       </c>
       <c r="G100" s="3"/>
-      <c r="H100" s="34"/>
-    </row>
-    <row r="101" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="36">
+      <c r="H100" s="16"/>
+    </row>
+    <row r="101" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A101" s="18">
         <v>15.1</v>
       </c>
-      <c r="B101" s="36"/>
-      <c r="C101" s="36"/>
-      <c r="D101" s="36" t="s">
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E101" s="36" t="s">
+      <c r="E101" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="F101" s="36" t="s">
+      <c r="F101" s="18" t="s">
         <v>171</v>
       </c>
       <c r="G101" s="2"/>
-      <c r="H101" s="36"/>
-    </row>
-    <row r="102" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="36">
+      <c r="H101" s="18"/>
+    </row>
+    <row r="102" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="18">
         <v>15.2</v>
       </c>
-      <c r="B102" s="36"/>
-      <c r="C102" s="36"/>
-      <c r="D102" s="37"/>
-      <c r="E102" s="36" t="s">
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="F102" s="36" t="s">
+      <c r="F102" s="18" t="s">
         <v>179</v>
       </c>
       <c r="G102" s="2"/>
-      <c r="H102" s="36"/>
+      <c r="H102" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3842,7 +3887,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>G2 G6</xm:sqref>
+          <xm:sqref>G2 G6 G10 G20 G38 G45 G51</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3864,12 +3909,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="25" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="26" t="s">
         <v>182</v>
       </c>
     </row>

--- a/DOC/OrangeHRM.xlsx
+++ b/DOC/OrangeHRM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\ORANGE-HRM\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FA8839-CF61-4102-A1E2-02A0D9257A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F04A154-0908-4116-83B7-A2E2995A1036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{07652D24-813E-47E9-BBAF-B7EB4B2764AC}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="8170" xr2:uid="{07652D24-813E-47E9-BBAF-B7EB4B2764AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="5" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="178">
   <si>
     <t>Test plan</t>
   </si>
@@ -148,96 +148,6 @@
   </si>
   <si>
     <t>An error message gets displayed</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Author: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Javier Melendez Zacarias</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Date:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 9/6/2023</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Epic: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>None</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">User Story: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>None</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Automation: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Selenium WebDriver</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">JIRA: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>None</t>
-    </r>
   </si>
   <si>
     <t>Type</t>
@@ -262,36 +172,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Passing score: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>95%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Defects: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Environment: </t>
     </r>
     <r>
@@ -379,36 +259,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">No. Test Cases: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>15</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Framework: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TDD</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Language: </t>
     </r>
     <r>
@@ -784,6 +634,39 @@
   </si>
   <si>
     <t>Fail upload file</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Author: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LyDTT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Date:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Automation: Cypress</t>
   </si>
 </sst>
 </file>
@@ -1628,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BB2A49-A929-4F5D-BA74-FB20428C22C8}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1647,45 +1530,35 @@
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>35</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="D1" s="7"/>
       <c r="E1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>62</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="37"/>
       <c r="B2" s="38"/>
       <c r="C2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>33</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="F3" s="14"/>
     </row>
@@ -1693,14 +1566,9 @@
       <c r="A4" s="39"/>
       <c r="B4" s="40"/>
       <c r="C4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D4" s="7"/>
       <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1717,7 +1585,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>5</v>
@@ -1729,16 +1597,16 @@
         <v>HRM-1</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>7</v>
@@ -1750,13 +1618,13 @@
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="11" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>7</v>
@@ -1767,16 +1635,16 @@
         <v>HRM-3</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>7</v>
@@ -1788,13 +1656,13 @@
       </c>
       <c r="B9" s="44"/>
       <c r="C9" s="11" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>7</v>
@@ -1806,13 +1674,13 @@
       </c>
       <c r="B10" s="44"/>
       <c r="C10" s="11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>7</v>
@@ -1824,13 +1692,13 @@
       </c>
       <c r="B11" s="44"/>
       <c r="C11" s="11" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>7</v>
@@ -1841,16 +1709,16 @@
         <v>HRM-7</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>7</v>
@@ -1862,13 +1730,13 @@
       </c>
       <c r="B13" s="46"/>
       <c r="C13" s="11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>7</v>
@@ -1880,13 +1748,13 @@
       </c>
       <c r="B14" s="46"/>
       <c r="C14" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>7</v>
@@ -1897,16 +1765,16 @@
         <v>HRM-10</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>7</v>
@@ -1918,13 +1786,13 @@
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="11" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>7</v>
@@ -1935,16 +1803,16 @@
         <v>HRM-12</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>7</v>
@@ -1956,13 +1824,13 @@
       </c>
       <c r="B18" s="34"/>
       <c r="C18" s="11" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>7</v>
@@ -1973,16 +1841,16 @@
         <v>HRM-14</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>7</v>
@@ -1994,13 +1862,13 @@
       </c>
       <c r="B20" s="32"/>
       <c r="C20" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>7</v>
@@ -2044,8 +1912,8 @@
   </sheetPr>
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2081,7 +1949,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H1" s="22"/>
     </row>
@@ -2090,20 +1958,20 @@
         <v>13</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -2113,14 +1981,14 @@
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="20"/>
@@ -2131,14 +1999,14 @@
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="20"/>
@@ -2151,7 +2019,7 @@
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>28</v>
@@ -2164,20 +2032,20 @@
         <v>14</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="H6" s="16"/>
     </row>
@@ -2187,14 +2055,14 @@
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="18"/>
@@ -2205,14 +2073,14 @@
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="18"/>
@@ -2225,7 +2093,7 @@
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>29</v>
@@ -2238,20 +2106,20 @@
         <v>15</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="H10" s="16"/>
     </row>
@@ -2262,13 +2130,13 @@
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="18"/>
@@ -2281,10 +2149,10 @@
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="18"/>
@@ -2295,14 +2163,14 @@
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="18"/>
@@ -2313,14 +2181,14 @@
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="18"/>
@@ -2331,14 +2199,14 @@
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="18"/>
@@ -2349,14 +2217,14 @@
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="18"/>
@@ -2367,14 +2235,14 @@
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="19" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="18"/>
@@ -2387,10 +2255,10 @@
       <c r="C18" s="19"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="18"/>
@@ -2403,10 +2271,10 @@
       <c r="C19" s="19"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="18"/>
@@ -2416,20 +2284,20 @@
         <v>16</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="H20" s="16"/>
     </row>
@@ -2440,13 +2308,13 @@
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="18"/>
@@ -2459,10 +2327,10 @@
       <c r="C22" s="20"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="18"/>
@@ -2473,14 +2341,14 @@
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="18"/>
@@ -2491,14 +2359,14 @@
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="18" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="18"/>
@@ -2509,14 +2377,14 @@
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="18" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="18"/>
@@ -2527,14 +2395,14 @@
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="18"/>
@@ -2545,14 +2413,14 @@
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="19" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="18"/>
@@ -2565,10 +2433,10 @@
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="18"/>
@@ -2578,20 +2446,20 @@
         <v>17</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="H29" s="16"/>
     </row>
@@ -2602,13 +2470,13 @@
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="18"/>
@@ -2621,10 +2489,10 @@
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="18"/>
@@ -2637,10 +2505,10 @@
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="18"/>
@@ -2653,10 +2521,10 @@
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="18"/>
@@ -2667,14 +2535,14 @@
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="18"/>
@@ -2685,14 +2553,14 @@
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="18" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="18"/>
@@ -2705,10 +2573,10 @@
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="18"/>
@@ -2721,10 +2589,10 @@
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
       <c r="E37" s="18" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="18"/>
@@ -2734,20 +2602,20 @@
         <v>18</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="H38" s="16"/>
     </row>
@@ -2758,13 +2626,13 @@
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
       <c r="D39" s="18" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="18"/>
@@ -2777,10 +2645,10 @@
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
       <c r="E40" s="18" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="18"/>
@@ -2793,10 +2661,10 @@
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
       <c r="E41" s="18" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="18"/>
@@ -2807,11 +2675,11 @@
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="18" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="18" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F42" s="18" t="s">
         <v>27</v>
@@ -2827,10 +2695,10 @@
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
       <c r="E43" s="18" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="18"/>
@@ -2841,14 +2709,14 @@
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="18" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="18" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="18"/>
@@ -2858,20 +2726,20 @@
         <v>19</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G45" s="28" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="H45" s="16"/>
     </row>
@@ -2882,13 +2750,13 @@
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
       <c r="D46" s="18" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="18"/>
@@ -2901,10 +2769,10 @@
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
       <c r="E47" s="18" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="18"/>
@@ -2915,14 +2783,14 @@
       </c>
       <c r="B48" s="18"/>
       <c r="C48" s="18" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D48" s="18"/>
       <c r="E48" s="18" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="18"/>
@@ -2933,14 +2801,14 @@
       </c>
       <c r="B49" s="18"/>
       <c r="C49" s="18" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="18" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="18"/>
@@ -2953,10 +2821,10 @@
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
       <c r="E50" s="18" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="18"/>
@@ -2966,20 +2834,20 @@
         <v>20</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G51" s="28" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="H51" s="16"/>
     </row>
@@ -2990,13 +2858,13 @@
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
       <c r="D52" s="18" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="18"/>
@@ -3009,10 +2877,10 @@
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
       <c r="E53" s="18" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="18"/>
@@ -3023,14 +2891,14 @@
       </c>
       <c r="B54" s="18"/>
       <c r="C54" s="18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D54" s="18"/>
       <c r="E54" s="18" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="18"/>
@@ -3043,10 +2911,10 @@
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
       <c r="E55" s="18" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="18"/>
@@ -3059,10 +2927,10 @@
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
       <c r="E56" s="18" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="18"/>
@@ -3073,14 +2941,14 @@
       </c>
       <c r="B57" s="18"/>
       <c r="C57" s="18" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D57" s="18"/>
       <c r="E57" s="18" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="18"/>
@@ -3091,14 +2959,14 @@
       </c>
       <c r="B58" s="18"/>
       <c r="C58" s="18" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D58" s="18"/>
       <c r="E58" s="18" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="18"/>
@@ -3111,10 +2979,10 @@
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
       <c r="E59" s="18" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="18"/>
@@ -3127,10 +2995,10 @@
       <c r="C60" s="18"/>
       <c r="D60" s="18"/>
       <c r="E60" s="18" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="18"/>
@@ -3141,14 +3009,14 @@
       </c>
       <c r="B61" s="18"/>
       <c r="C61" s="18" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D61" s="18"/>
       <c r="E61" s="18" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="18"/>
@@ -3161,10 +3029,10 @@
       <c r="C62" s="18"/>
       <c r="D62" s="18"/>
       <c r="E62" s="18" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="18"/>
@@ -3174,20 +3042,20 @@
         <v>21</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C63" s="16"/>
       <c r="D63" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="H63" s="16"/>
     </row>
@@ -3198,13 +3066,13 @@
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
       <c r="D64" s="18" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="18"/>
@@ -3217,10 +3085,10 @@
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
       <c r="E65" s="18" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="18"/>
@@ -3231,14 +3099,14 @@
       </c>
       <c r="B66" s="18"/>
       <c r="C66" s="18" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D66" s="18"/>
       <c r="E66" s="18" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="18"/>
@@ -3251,10 +3119,10 @@
       <c r="C67" s="18"/>
       <c r="D67" s="18"/>
       <c r="E67" s="18" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="18"/>
@@ -3267,7 +3135,7 @@
       <c r="C68" s="18"/>
       <c r="D68" s="18"/>
       <c r="E68" s="18" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F68" s="18" t="s">
         <v>27</v>
@@ -3283,10 +3151,10 @@
       <c r="C69" s="18"/>
       <c r="D69" s="18"/>
       <c r="E69" s="18" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="18"/>
@@ -3297,14 +3165,14 @@
       </c>
       <c r="B70" s="18"/>
       <c r="C70" s="18" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D70" s="18"/>
       <c r="E70" s="18" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="18"/>
@@ -3314,17 +3182,17 @@
         <v>22</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C71" s="16"/>
       <c r="D71" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="16"/>
@@ -3336,13 +3204,13 @@
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
       <c r="D72" s="18" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="18"/>
@@ -3355,10 +3223,10 @@
       <c r="C73" s="18"/>
       <c r="D73" s="18"/>
       <c r="E73" s="18" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="18"/>
@@ -3371,10 +3239,10 @@
       <c r="C74" s="18"/>
       <c r="D74" s="18"/>
       <c r="E74" s="18" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="18"/>
@@ -3385,14 +3253,14 @@
       </c>
       <c r="B75" s="18"/>
       <c r="C75" s="18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D75" s="18"/>
       <c r="E75" s="18" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="18"/>
@@ -3403,14 +3271,14 @@
       </c>
       <c r="B76" s="18"/>
       <c r="C76" s="18" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D76" s="18"/>
       <c r="E76" s="18" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="18"/>
@@ -3421,14 +3289,14 @@
       </c>
       <c r="B77" s="18"/>
       <c r="C77" s="18" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D77" s="18"/>
       <c r="E77" s="18" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="18"/>
@@ -3441,10 +3309,10 @@
       <c r="C78" s="18"/>
       <c r="D78" s="18"/>
       <c r="E78" s="18" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="18"/>
@@ -3454,17 +3322,17 @@
         <v>23</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C79" s="16"/>
       <c r="D79" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="16"/>
@@ -3476,13 +3344,13 @@
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
       <c r="D80" s="18" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="18"/>
@@ -3495,10 +3363,10 @@
       <c r="C81" s="18"/>
       <c r="D81" s="18"/>
       <c r="E81" s="18" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="18"/>
@@ -3509,14 +3377,14 @@
       </c>
       <c r="B82" s="18"/>
       <c r="C82" s="18" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D82" s="18"/>
       <c r="E82" s="18" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="18"/>
@@ -3527,14 +3395,14 @@
       </c>
       <c r="B83" s="18"/>
       <c r="C83" s="18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D83" s="18"/>
       <c r="E83" s="18" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="18"/>
@@ -3547,10 +3415,10 @@
       <c r="C84" s="18"/>
       <c r="D84" s="18"/>
       <c r="E84" s="18" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="18"/>
@@ -3563,7 +3431,7 @@
       <c r="C85" s="18"/>
       <c r="D85" s="18"/>
       <c r="E85" s="18" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F85" s="18" t="s">
         <v>27</v>
@@ -3579,10 +3447,10 @@
       <c r="C86" s="18"/>
       <c r="D86" s="18"/>
       <c r="E86" s="18" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="18"/>
@@ -3592,17 +3460,17 @@
         <v>24</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C87" s="16"/>
       <c r="D87" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="16"/>
@@ -3614,13 +3482,13 @@
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
       <c r="D88" s="18" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="18"/>
@@ -3631,14 +3499,14 @@
       </c>
       <c r="B89" s="18"/>
       <c r="C89" s="18" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D89" s="18"/>
       <c r="E89" s="18" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="18"/>
@@ -3651,10 +3519,10 @@
       <c r="C90" s="18"/>
       <c r="D90" s="18"/>
       <c r="E90" s="18" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="18"/>
@@ -3664,17 +3532,17 @@
         <v>25</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C91" s="16"/>
       <c r="D91" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="16"/>
@@ -3686,13 +3554,13 @@
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
       <c r="D92" s="18" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="18"/>
@@ -3703,14 +3571,14 @@
       </c>
       <c r="B93" s="18"/>
       <c r="C93" s="18" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D93" s="18"/>
       <c r="E93" s="18" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="18"/>
@@ -3723,7 +3591,7 @@
       <c r="C94" s="19"/>
       <c r="D94" s="18"/>
       <c r="E94" s="18" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F94" s="18" t="s">
         <v>29</v>
@@ -3736,17 +3604,17 @@
         <v>26</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C95" s="16"/>
       <c r="D95" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="16"/>
@@ -3758,13 +3626,13 @@
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
       <c r="D96" s="18" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="18"/>
@@ -3775,14 +3643,14 @@
       </c>
       <c r="B97" s="18"/>
       <c r="C97" s="18" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D97" s="19"/>
       <c r="E97" s="18" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="18"/>
@@ -3795,10 +3663,10 @@
       <c r="C98" s="19"/>
       <c r="D98" s="18"/>
       <c r="E98" s="18" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="18"/>
@@ -3811,30 +3679,30 @@
       <c r="C99" s="18"/>
       <c r="D99" s="18"/>
       <c r="E99" s="18" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="18"/>
     </row>
     <row r="100" spans="1:8" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="16" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C100" s="16"/>
       <c r="D100" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="16"/>
@@ -3846,13 +3714,13 @@
       <c r="B101" s="18"/>
       <c r="C101" s="18"/>
       <c r="D101" s="18" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="18"/>
@@ -3865,10 +3733,10 @@
       <c r="C102" s="18"/>
       <c r="D102" s="19"/>
       <c r="E102" s="18" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="18"/>
@@ -3910,12 +3778,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
